--- a/2023_2024-Q1/Erdkunde/landwirtschaft/Vor- und Nachteile der ökologischen Landwirtschaft.xlsx
+++ b/2023_2024-Q1/Erdkunde/landwirtschaft/Vor- und Nachteile der ökologischen Landwirtschaft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/F5BF2B76-9EFD-4830-BFDF-08EECFB9EAFA/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77366B91-8F06-7249-AF43-AD9819FC0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{77366B91-8F06-7249-AF43-AD9819FC0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{678D945A-F7CF-A547-AF2D-D7DAD44E7E73}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Vorteile</t>
   </si>
@@ -113,7 +113,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -124,6 +137,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3F69CD2-C1E4-CF49-810F-A652A3CD6A41}" name="Table2" displayName="Table2" ref="A1:B6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:B6" xr:uid="{F3F69CD2-C1E4-CF49-810F-A652A3CD6A41}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{52CBE2BC-D3A7-604E-9912-DB2B69954CEC}" name="Vorteile" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{83F98B86-BD81-6A43-8439-BF9691A7B87E}" name="Nachteile" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,7 +450,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -486,5 +510,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>